--- a/examples/above_ground_ucerf/Results/results.xlsx
+++ b/examples/above_ground_ucerf/Results/results.xlsx
@@ -1665,16 +1665,16 @@
         <v>0</v>
       </c>
       <c r="DD2" t="n">
-        <v>7.689999999999999e-08</v>
+        <v>2.136e-06</v>
       </c>
       <c r="DE2" t="n">
-        <v>6.237e-07</v>
+        <v>5.752e-05</v>
       </c>
       <c r="DF2" t="n">
-        <v>7.498e-07</v>
+        <v>6.428e-05</v>
       </c>
       <c r="DG2" t="n">
-        <v>3.255e-07</v>
+        <v>3.182e-05</v>
       </c>
       <c r="DH2" t="n">
         <v>0</v>
@@ -1683,16 +1683,16 @@
         <v>0</v>
       </c>
       <c r="DJ2" t="n">
-        <v>5.992999999999999e-08</v>
+        <v>2.142e-06</v>
       </c>
       <c r="DK2" t="n">
-        <v>5.134e-07</v>
+        <v>3.889e-05</v>
       </c>
       <c r="DL2" t="n">
-        <v>5.878e-07</v>
+        <v>4.34e-05</v>
       </c>
       <c r="DM2" t="n">
-        <v>2.602e-07</v>
+        <v>2.119e-05</v>
       </c>
       <c r="DN2" t="n">
         <v>0</v>
@@ -1701,16 +1701,16 @@
         <v>0</v>
       </c>
       <c r="DP2" t="n">
-        <v>1.119e-06</v>
+        <v>1.419e-05</v>
       </c>
       <c r="DQ2" t="n">
-        <v>1.129e-05</v>
+        <v>0.0003029</v>
       </c>
       <c r="DR2" t="n">
-        <v>1.259e-05</v>
+        <v>0.0003368</v>
       </c>
       <c r="DS2" t="n">
-        <v>5.871e-06</v>
+        <v>0.0001832</v>
       </c>
       <c r="DT2" t="n">
         <v>0</v>
@@ -1719,16 +1719,16 @@
         <v>0</v>
       </c>
       <c r="DV2" t="n">
-        <v>6.799e-07</v>
+        <v>2.42e-06</v>
       </c>
       <c r="DW2" t="n">
-        <v>5.464e-06</v>
+        <v>0.0001165</v>
       </c>
       <c r="DX2" t="n">
-        <v>6.31e-06</v>
+        <v>0.0001298</v>
       </c>
       <c r="DY2" t="n">
-        <v>2.852e-06</v>
+        <v>6.583e-05</v>
       </c>
       <c r="DZ2" t="n">
         <v>0</v>
@@ -1737,16 +1737,16 @@
         <v>0</v>
       </c>
       <c r="EB2" t="n">
-        <v>1.107e-07</v>
+        <v>2.791e-06</v>
       </c>
       <c r="EC2" t="n">
-        <v>9.626999999999999e-07</v>
+        <v>6.062e-05</v>
       </c>
       <c r="ED2" t="n">
-        <v>1.148e-06</v>
+        <v>6.828e-05</v>
       </c>
       <c r="EE2" t="n">
-        <v>5.029e-07</v>
+        <v>3.333e-05</v>
       </c>
     </row>
     <row r="3">
@@ -2074,16 +2074,16 @@
         <v>0</v>
       </c>
       <c r="DD3" t="n">
-        <v>7.389e-10</v>
+        <v>1.09e-10</v>
       </c>
       <c r="DE3" t="n">
-        <v>4.674e-09</v>
+        <v>2.109e-09</v>
       </c>
       <c r="DF3" t="n">
-        <v>8.131e-09</v>
+        <v>3.8e-09</v>
       </c>
       <c r="DG3" t="n">
-        <v>3.034e-09</v>
+        <v>1.342e-09</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
@@ -2092,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="DJ3" t="n">
-        <v>2.255e-09</v>
+        <v>5.952e-10</v>
       </c>
       <c r="DK3" t="n">
-        <v>1.448e-08</v>
+        <v>6.208e-09</v>
       </c>
       <c r="DL3" t="n">
-        <v>2.317e-08</v>
+        <v>1.039e-08</v>
       </c>
       <c r="DM3" t="n">
-        <v>9.225e-09</v>
+        <v>4.13e-09</v>
       </c>
       <c r="DN3" t="n">
         <v>0</v>
@@ -2110,16 +2110,16 @@
         <v>0</v>
       </c>
       <c r="DP3" t="n">
-        <v>9.006e-08</v>
+        <v>1.783e-08</v>
       </c>
       <c r="DQ3" t="n">
-        <v>5.13e-07</v>
+        <v>2.735e-07</v>
       </c>
       <c r="DR3" t="n">
-        <v>8.76e-07</v>
+        <v>4.561e-07</v>
       </c>
       <c r="DS3" t="n">
-        <v>3.677e-07</v>
+        <v>2.131e-07</v>
       </c>
       <c r="DT3" t="n">
         <v>0</v>
@@ -2128,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="DV3" t="n">
-        <v>1.424e-07</v>
+        <v>2.206e-08</v>
       </c>
       <c r="DW3" t="n">
-        <v>8.888e-07</v>
+        <v>4.059e-07</v>
       </c>
       <c r="DX3" t="n">
-        <v>1.588e-06</v>
+        <v>7.194e-07</v>
       </c>
       <c r="DY3" t="n">
-        <v>6.557e-07</v>
+        <v>3.233e-07</v>
       </c>
       <c r="DZ3" t="n">
         <v>0</v>
@@ -2146,16 +2146,16 @@
         <v>0</v>
       </c>
       <c r="EB3" t="n">
-        <v>1.986e-09</v>
+        <v>1.284e-09</v>
       </c>
       <c r="EC3" t="n">
-        <v>1.25e-08</v>
+        <v>1.781e-08</v>
       </c>
       <c r="ED3" t="n">
-        <v>2.15e-08</v>
+        <v>3.084e-08</v>
       </c>
       <c r="EE3" t="n">
-        <v>8.106e-09</v>
+        <v>1.154e-08</v>
       </c>
     </row>
   </sheetData>
@@ -3174,16 +3174,16 @@
         <v>0</v>
       </c>
       <c r="DD2" t="n">
-        <v>1.702e-07</v>
+        <v>2.272e-05</v>
       </c>
       <c r="DE2" t="n">
-        <v>2.655e-06</v>
+        <v>0.0001326</v>
       </c>
       <c r="DF2" t="n">
-        <v>3.166e-06</v>
+        <v>0.0001465</v>
       </c>
       <c r="DG2" t="n">
-        <v>1.628e-06</v>
+        <v>8.192e-05</v>
       </c>
       <c r="DH2" t="n">
         <v>0</v>
@@ -3192,16 +3192,16 @@
         <v>0</v>
       </c>
       <c r="DJ2" t="n">
-        <v>1.175e-07</v>
+        <v>1.428e-05</v>
       </c>
       <c r="DK2" t="n">
-        <v>1.72e-06</v>
+        <v>8.390000000000001e-05</v>
       </c>
       <c r="DL2" t="n">
-        <v>1.983e-06</v>
+        <v>9.095e-05</v>
       </c>
       <c r="DM2" t="n">
-        <v>1.042e-06</v>
+        <v>5.083e-05</v>
       </c>
       <c r="DN2" t="n">
         <v>0</v>
@@ -3210,16 +3210,16 @@
         <v>0</v>
       </c>
       <c r="DP2" t="n">
-        <v>1.477e-06</v>
+        <v>8.357e-05</v>
       </c>
       <c r="DQ2" t="n">
-        <v>2.509e-05</v>
+        <v>0.0004796</v>
       </c>
       <c r="DR2" t="n">
-        <v>2.855e-05</v>
+        <v>0.0005167</v>
       </c>
       <c r="DS2" t="n">
-        <v>1.602e-05</v>
+        <v>0.0003215</v>
       </c>
       <c r="DT2" t="n">
         <v>0</v>
@@ -3228,16 +3228,16 @@
         <v>0</v>
       </c>
       <c r="DV2" t="n">
-        <v>7.41e-07</v>
+        <v>4.261e-05</v>
       </c>
       <c r="DW2" t="n">
-        <v>1.546e-05</v>
+        <v>0.0002328</v>
       </c>
       <c r="DX2" t="n">
-        <v>1.805e-05</v>
+        <v>0.0002558</v>
       </c>
       <c r="DY2" t="n">
-        <v>9.758999999999999e-06</v>
+        <v>0.0001473</v>
       </c>
       <c r="DZ2" t="n">
         <v>0</v>
@@ -3246,16 +3246,16 @@
         <v>0</v>
       </c>
       <c r="EB2" t="n">
-        <v>2.828e-07</v>
+        <v>2.44e-05</v>
       </c>
       <c r="EC2" t="n">
-        <v>3.823e-06</v>
+        <v>0.0001407</v>
       </c>
       <c r="ED2" t="n">
-        <v>4.517e-06</v>
+        <v>0.0001543</v>
       </c>
       <c r="EE2" t="n">
-        <v>2.342e-06</v>
+        <v>8.623000000000001e-05</v>
       </c>
     </row>
     <row r="3">
@@ -3583,16 +3583,16 @@
         <v>0</v>
       </c>
       <c r="DD3" t="n">
-        <v>3.281e-09</v>
+        <v>3.782e-09</v>
       </c>
       <c r="DE3" t="n">
-        <v>6.306999999999999e-08</v>
+        <v>3.708e-08</v>
       </c>
       <c r="DF3" t="n">
-        <v>1.172e-07</v>
+        <v>6.462000000000001e-08</v>
       </c>
       <c r="DG3" t="n">
-        <v>4.506e-08</v>
+        <v>2.166e-08</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
@@ -3601,16 +3601,16 @@
         <v>0</v>
       </c>
       <c r="DJ3" t="n">
-        <v>5.492e-09</v>
+        <v>6.968e-09</v>
       </c>
       <c r="DK3" t="n">
-        <v>1.051e-07</v>
+        <v>5.479e-08</v>
       </c>
       <c r="DL3" t="n">
-        <v>1.748e-07</v>
+        <v>8.719e-08</v>
       </c>
       <c r="DM3" t="n">
-        <v>7.583e-08</v>
+        <v>3.46e-08</v>
       </c>
       <c r="DN3" t="n">
         <v>0</v>
@@ -3619,16 +3619,16 @@
         <v>0</v>
       </c>
       <c r="DP3" t="n">
-        <v>1.948e-07</v>
+        <v>2.259e-07</v>
       </c>
       <c r="DQ3" t="n">
-        <v>1.939e-06</v>
+        <v>1.184e-06</v>
       </c>
       <c r="DR3" t="n">
-        <v>3.493e-06</v>
+        <v>1.927e-06</v>
       </c>
       <c r="DS3" t="n">
-        <v>1.686e-06</v>
+        <v>8.906e-07</v>
       </c>
       <c r="DT3" t="n">
         <v>0</v>
@@ -3637,16 +3637,16 @@
         <v>0</v>
       </c>
       <c r="DV3" t="n">
-        <v>2.854e-07</v>
+        <v>3.663e-07</v>
       </c>
       <c r="DW3" t="n">
-        <v>3.722e-06</v>
+        <v>2.037e-06</v>
       </c>
       <c r="DX3" t="n">
-        <v>7.318e-06</v>
+        <v>3.601e-06</v>
       </c>
       <c r="DY3" t="n">
-        <v>3.349e-06</v>
+        <v>1.587e-06</v>
       </c>
       <c r="DZ3" t="n">
         <v>0</v>
@@ -3655,16 +3655,16 @@
         <v>0</v>
       </c>
       <c r="EB3" t="n">
-        <v>1.169e-08</v>
+        <v>2.482e-08</v>
       </c>
       <c r="EC3" t="n">
-        <v>1.283e-07</v>
+        <v>1.892e-07</v>
       </c>
       <c r="ED3" t="n">
-        <v>2.373e-07</v>
+        <v>3.11e-07</v>
       </c>
       <c r="EE3" t="n">
-        <v>9.394000000000001e-08</v>
+        <v>1.169e-07</v>
       </c>
     </row>
   </sheetData>
@@ -3744,19 +3744,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.377e-05</v>
+        <v>1.87e-05</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0002278</v>
+        <v>0.0002425</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001416</v>
+        <v>0.001448</v>
       </c>
       <c r="H2" t="n">
-        <v>0.003439</v>
+        <v>0.003597</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0008166</v>
+        <v>0.0007982</v>
       </c>
     </row>
     <row r="3">
@@ -3775,19 +3775,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>5.771e-05</v>
+        <v>5.778e-05</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0003074</v>
+        <v>0.0003008</v>
       </c>
       <c r="G3" t="n">
-        <v>0.002174</v>
+        <v>0.002767</v>
       </c>
       <c r="H3" t="n">
-        <v>0.006353</v>
+        <v>0.008611000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001477</v>
+        <v>0.001767</v>
       </c>
     </row>
   </sheetData>
@@ -3910,16 +3910,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.689999999999999e-08</v>
+        <v>2.136e-06</v>
       </c>
       <c r="G2" t="n">
-        <v>6.237e-07</v>
+        <v>5.752e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>7.498e-07</v>
+        <v>6.428e-05</v>
       </c>
       <c r="I2" t="n">
-        <v>3.255e-07</v>
+        <v>3.182e-05</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -3933,16 +3933,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.119e-06</v>
+        <v>1.419e-05</v>
       </c>
       <c r="N2" t="n">
-        <v>1.129e-05</v>
+        <v>0.0003029</v>
       </c>
       <c r="O2" t="n">
-        <v>1.259e-05</v>
+        <v>0.0003368</v>
       </c>
       <c r="P2" t="n">
-        <v>5.871e-06</v>
+        <v>0.0001832</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -3969,16 +3969,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2.255e-09</v>
+        <v>5.952e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>1.448e-08</v>
+        <v>6.208e-09</v>
       </c>
       <c r="H3" t="n">
-        <v>2.317e-08</v>
+        <v>1.039e-08</v>
       </c>
       <c r="I3" t="n">
-        <v>9.225e-09</v>
+        <v>4.13e-09</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -3992,16 +3992,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.424e-07</v>
+        <v>2.206e-08</v>
       </c>
       <c r="N3" t="n">
-        <v>8.888e-07</v>
+        <v>4.059e-07</v>
       </c>
       <c r="O3" t="n">
-        <v>1.588e-06</v>
+        <v>7.194e-07</v>
       </c>
       <c r="P3" t="n">
-        <v>6.557e-07</v>
+        <v>3.233e-07</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -4129,16 +4129,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.702e-07</v>
+        <v>2.272e-05</v>
       </c>
       <c r="G2" t="n">
-        <v>2.655e-06</v>
+        <v>0.0001326</v>
       </c>
       <c r="H2" t="n">
-        <v>3.166e-06</v>
+        <v>0.0001465</v>
       </c>
       <c r="I2" t="n">
-        <v>1.628e-06</v>
+        <v>8.192e-05</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -4152,16 +4152,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.477e-06</v>
+        <v>8.357e-05</v>
       </c>
       <c r="N2" t="n">
-        <v>2.509e-05</v>
+        <v>0.0004796</v>
       </c>
       <c r="O2" t="n">
-        <v>2.855e-05</v>
+        <v>0.0005167</v>
       </c>
       <c r="P2" t="n">
-        <v>1.602e-05</v>
+        <v>0.0003215</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -4188,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>5.492e-09</v>
+        <v>6.968e-09</v>
       </c>
       <c r="G3" t="n">
-        <v>1.051e-07</v>
+        <v>5.479e-08</v>
       </c>
       <c r="H3" t="n">
-        <v>1.748e-07</v>
+        <v>8.719e-08</v>
       </c>
       <c r="I3" t="n">
-        <v>7.583e-08</v>
+        <v>3.46e-08</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -4211,16 +4211,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.854e-07</v>
+        <v>3.663e-07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.722e-06</v>
+        <v>2.037e-06</v>
       </c>
       <c r="O3" t="n">
-        <v>7.318e-06</v>
+        <v>3.601e-06</v>
       </c>
       <c r="P3" t="n">
-        <v>3.349e-06</v>
+        <v>1.587e-06</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
